--- a/Лаб. 9-10/1.xlsx
+++ b/Лаб. 9-10/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbely\OneDrive\Рабочий стол\УНИВЕР\2 курс\2 семестр\Програмная инженерия\Лабораторные\Лаб. 9-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24359066-0554-4FB8-B3AE-297210BF761A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6DAE06-3C8B-4567-9589-852304D62043}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{9C4108F3-9D39-3A46-A020-707C222370A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{9C4108F3-9D39-3A46-A020-707C222370A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-план" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="103">
   <si>
     <t>Статус</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>Заключение: Система готова к использованию и запуску ее на рынок</t>
+  </si>
+  <si>
+    <t>Готово</t>
   </si>
 </sst>
 </file>
@@ -1000,12 +1003,22 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1027,15 +1040,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1066,7 +1070,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1773,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B9C37B-8876-F348-BF64-EA9646C68131}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1786,51 +1789,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
     </row>
     <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -1847,20 +1850,20 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -1905,7 +1908,9 @@
       <c r="C10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="17" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -1917,7 +1922,9 @@
       <c r="C11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="54" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -1929,7 +1936,9 @@
       <c r="C12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
@@ -1941,7 +1950,9 @@
       <c r="C13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
@@ -1953,7 +1964,9 @@
       <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1995,61 +2008,61 @@
       <c r="A2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
     </row>
     <row r="3" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
     </row>
     <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="91">
+      <c r="B7" s="85">
         <v>43972</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="93"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2196,61 +2209,61 @@
       <c r="A2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
     </row>
     <row r="3" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
     </row>
     <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="91">
+      <c r="B7" s="85">
         <v>43972</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="93"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2397,61 +2410,61 @@
       <c r="A2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
     </row>
     <row r="3" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
     </row>
     <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="89">
+      <c r="B5" s="93">
         <v>1</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="91">
+      <c r="B7" s="85">
         <v>43972</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="93"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2674,61 +2687,61 @@
       <c r="A2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
     </row>
     <row r="3" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
     </row>
     <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="89">
+      <c r="B5" s="93">
         <v>2</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="91">
+      <c r="B7" s="85">
         <v>43972</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="93"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2846,61 +2859,61 @@
       <c r="A2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
     </row>
     <row r="3" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
     </row>
     <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="89">
+      <c r="B5" s="93">
         <v>3</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="94">
+      <c r="B7" s="95">
         <v>43972</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
@@ -3192,7 +3205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843FA032-F555-BD4B-8F0E-6AD148138C73}">
   <dimension ref="A1:W80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
@@ -3204,11 +3217,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -3497,10 +3510,10 @@
       <c r="A11" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="102">
+      <c r="B11" s="103">
         <v>3</v>
       </c>
-      <c r="C11" s="103"/>
+      <c r="C11" s="104"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3526,10 +3539,10 @@
       <c r="A12" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="97">
+      <c r="B12" s="98">
         <v>0</v>
       </c>
-      <c r="C12" s="98"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3555,10 +3568,10 @@
       <c r="A13" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="97">
+      <c r="B13" s="98">
         <v>0</v>
       </c>
-      <c r="C13" s="98"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3584,10 +3597,10 @@
       <c r="A14" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="97">
+      <c r="B14" s="98">
         <v>2</v>
       </c>
-      <c r="C14" s="98"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3613,10 +3626,10 @@
       <c r="A15" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="97">
+      <c r="B15" s="98">
         <v>1</v>
       </c>
-      <c r="C15" s="98"/>
+      <c r="C15" s="99"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3642,10 +3655,10 @@
       <c r="A16" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="99">
+      <c r="B16" s="100">
         <v>0</v>
       </c>
-      <c r="C16" s="100"/>
+      <c r="C16" s="101"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3693,7 +3706,7 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="82" t="s">
         <v>101</v>
       </c>
       <c r="B18" s="3"/>
@@ -3720,9 +3733,9 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
